--- a/Sources/Venues.xlsx
+++ b/Sources/Venues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F420D-B41A-2949-BF2F-6EE9548C4D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D636F-788F-0F4D-8498-21EB1CCD24F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007E4BC-94E7-5847-981A-71552405068E}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Sources/Venues.xlsx
+++ b/Sources/Venues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D636F-788F-0F4D-8498-21EB1CCD24F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D2732-D77B-E449-BF90-0D55D04EF4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,6 +544,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007E4BC-94E7-5847-981A-71552405068E}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1150,7 +1151,7 @@
       <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1445,7 +1446,7 @@
       <c r="L27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="13" t="s">
         <v>47</v>
       </c>
     </row>
